--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Sampling strategy.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Sampling strategy.xlsx
@@ -26,6 +26,31 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>Census</t>
+  </si>
+  <si>
+    <t>Sampling strategy_5</t>
+  </si>
+  <si>
+    <t>When the totality of a population or sub-population, on which the data are reported, is controlled.</t>
+  </si>
+  <si>
+    <t>Convenient sampling</t>
+  </si>
+  <si>
+    <t>Sampling strategy_4</t>
+  </si>
+  <si>
+    <t>Special instance of selective sampling where no randomisation is performed in extracting the sample but units are selected only on the basis of feasibility or ease of data collection. Sampling used in exploratory research where the researcher is interested in getting an inexpensive approximation of the truth. 
+The subpopulations may or may not be determined on a risk basis.  The sampling from each subpopulation may not be proportional: the sample size is proportionally bigger for instance in subpopulations considered at high risk. This methodology is potentially subject to serious bias.</t>
+  </si>
+  <si>
+    <t>Not specified</t>
+  </si>
+  <si>
+    <t>Sampling strategy_7</t>
+  </si>
+  <si>
     <t>Objective sampling</t>
   </si>
   <si>
@@ -33,6 +58,12 @@
   </si>
   <si>
     <t xml:space="preserve">Planned strategy based on the selection of a random sample from a population on which the data are reported. Random sample is a sample which is taken under statistical consideration to provide representative data of population to be analysed. </t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Sampling strategy_6</t>
   </si>
   <si>
     <t>Selective sampling</t>
@@ -51,37 +82,6 @@
   </si>
   <si>
     <t>Selection of an individual sample in order to confirm or reject a suspicion of non-conformity. It's not a random sampling, therefore there is no sample extracted from the population.</t>
-  </si>
-  <si>
-    <t>Convenient sampling</t>
-  </si>
-  <si>
-    <t>Sampling strategy_4</t>
-  </si>
-  <si>
-    <t>Special instance of selective sampling where no randomisation is performed in extracting the sample but units are selected only on the basis of feasibility or ease of data collection. Sampling used in exploratory research where the researcher is interested in getting an inexpensive approximation of the truth. 
-The subpopulations may or may not be determined on a risk basis.  The sampling from each subpopulation may not be proportional: the sample size is proportionally bigger for instance in subpopulations considered at high risk. This methodology is potentially subject to serious bias.</t>
-  </si>
-  <si>
-    <t>Census</t>
-  </si>
-  <si>
-    <t>Sampling strategy_5</t>
-  </si>
-  <si>
-    <t>When the totality of a population or sub-population, on which the data are reported, is controlled.</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Sampling strategy_6</t>
-  </si>
-  <si>
-    <t>Not specified</t>
-  </si>
-  <si>
-    <t>Sampling strategy_7</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -177,49 +177,49 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="C7"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8"/>
     </row>
     <row r="9">
       <c r="A9"/>
